--- a/Datos/Database by set/Set with text box/Xlsx sets/Zendikar Promos (PZEN).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Zendikar Promos (PZEN).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A27"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,182 +444,35 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Day of Judgment</t>
+          <t>('Day of Judgment', ['{2}{W}{W}', 'Sorcery', 'Destroy all creatures.'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{2}{W}{W}</t>
+          <t>('Emeria Angel', ['{2}{W}{W}', 'Creature — Angel', 'Flying', 'Landfall — Whenever a land enters the battlefield under your control, you may create a 1/1 white Bird creature token with flying.', '3/3'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sorcery</t>
+          <t>("Nissa's Chosen", ['{G}{G}', 'Creature — Elf Warrior', 'If Nissa’s Chosen would die, put it on the bottom of its owner’s library instead.', '2/3'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Destroy all creatures.</t>
+          <t>('Rampaging Baloths', ['{4}{G}{G}', 'Creature — Beast', 'Trample', 'Landfall — Whenever a land enters the battlefield under your control, you may create a 4/4 green Beast creature token.', '6/6'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Emeria Angel</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>{2}{W}{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Creature — Angel</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Flying</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Landfall — Whenever a land enters the battlefield under your control, you may create a 1/1 white Bird creature token with flying.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>3/3</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Nissa's Chosen</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>{G}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Creature — Elf Warrior</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>If Nissa’s Chosen would die, put it on the bottom of its owner’s library instead.</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2/3</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Rampaging Baloths</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>{4}{G}{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Creature — Beast</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Trample</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Landfall — Whenever a land enters the battlefield under your control, you may create a 4/4 green Beast creature token.</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>6/6</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Valakut, the Molten Pinnacle</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Land</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Valakut, the Molten Pinnacle enters the battlefield tapped.</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Whenever a Mountain enters the battlefield under your control, if you control at least five other Mountains, you may have Valakut, the Molten Pinnacle deal 3 damage to any target.</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>{T}: Add {R}.</t>
+          <t>('Valakut, the Molten Pinnacle', ['Land', 'Valakut, the Molten Pinnacle enters the battlefield tapped.', 'Whenever a Mountain enters the battlefield under your control, if you control at least five other Mountains, you may have Valakut, the Molten Pinnacle deal 3 damage to any target.', '{T}: Add {R}.'])</t>
         </is>
       </c>
     </row>
